--- a/WIP/Deliverable/Report5/VMN_Integration Test Case_TestRound2_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report5/VMN_Integration Test Case_TestRound2_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Romeo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Romeo/Documents/201601JS01/WIP/Deliverable/Report5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="743" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="743" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="349">
   <si>
     <t>Project Name</t>
   </si>
@@ -616,9 +616,6 @@
     <t>Mod_login</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Integration Remedy with HMS</t>
   </si>
   <si>
@@ -1591,16 +1588,16 @@
 5. VMN system will alert message:"Register success." and redirect to "Login" Page</t>
   </si>
   <si>
-    <t>25/3/2016</t>
-  </si>
-  <si>
-    <t>26/3/2016</t>
-  </si>
-  <si>
-    <t>27/3/2016</t>
-  </si>
-  <si>
-    <t>28/3/2016</t>
+    <t xml:space="preserve"> 24/03/2016</t>
+  </si>
+  <si>
+    <t>22/3/2016</t>
+  </si>
+  <si>
+    <t>23/3/2016</t>
+  </si>
+  <si>
+    <t>24/3/2016</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1608,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1818,6 +1815,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2637,7 +2640,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3253,6 +3256,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -3384,14 +3388,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3772,7 +3776,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3791,7 +3795,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="206" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D2" s="206"/>
       <c r="E2" s="206"/>
@@ -3808,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="207" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="207"/>
       <c r="E4" s="207"/>
@@ -3832,7 +3836,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3849,7 +3853,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="80">
-        <v>42457</v>
+        <v>42453</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3858,7 +3862,7 @@
       <c r="D7" s="209"/>
       <c r="E7" s="209"/>
       <c r="F7" s="179" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G7" s="137" t="s">
         <v>37</v>
@@ -3878,32 +3882,32 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="196" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="197" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="198" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="198" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="198" t="s">
-        <v>329</v>
-      </c>
-      <c r="D11" s="198" t="s">
+      <c r="E11" s="198" t="s">
         <v>332</v>
       </c>
-      <c r="E11" s="198" t="s">
+      <c r="F11" s="198" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="198" t="s">
+      <c r="G11" s="199" t="s">
         <v>334</v>
-      </c>
-      <c r="G11" s="199" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="81">
-        <v>42457</v>
+        <v>42453</v>
       </c>
       <c r="C12" s="82" t="s">
         <v>37</v>
@@ -4047,7 +4051,7 @@
       </c>
       <c r="C5" s="210"/>
       <c r="D5" s="211" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" s="211"/>
       <c r="F5" s="211"/>
@@ -4088,13 +4092,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="133" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="106" t="s">
         <v>48</v>
@@ -4105,16 +4109,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="166" t="s">
         <v>126</v>
-      </c>
-      <c r="D10" s="166" t="s">
-        <v>127</v>
       </c>
       <c r="E10" s="107" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="26" x14ac:dyDescent="0.15">
@@ -4224,8 +4228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4234,7 +4238,7 @@
     <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="8" customWidth="1"/>
     <col min="4" max="6" width="8.83203125" style="8"/>
-    <col min="7" max="7" width="8.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="8" customWidth="1"/>
     <col min="8" max="9" width="33.1640625" style="8" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="8"/>
   </cols>
@@ -4291,8 +4295,8 @@
         <v>3</v>
       </c>
       <c r="F4" s="214"/>
-      <c r="G4" s="9" t="s">
-        <v>110</v>
+      <c r="G4" s="228" t="s">
+        <v>345</v>
       </c>
       <c r="H4" s="59"/>
     </row>
@@ -4383,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="70">
         <f>'User Module'!A6</f>
@@ -4412,7 +4416,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="166" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="70">
         <f>'Mod Module'!A6</f>
@@ -4570,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4608,7 +4612,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="220" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="220"/>
       <c r="D2" s="220"/>
@@ -4785,7 +4789,7 @@
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="53"/>
       <c r="B11" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -4802,13 +4806,13 @@
         <v>[User Module-2]</v>
       </c>
       <c r="B12" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="113" t="s">
         <v>144</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="113" t="s">
-        <v>145</v>
       </c>
       <c r="E12" s="85"/>
       <c r="F12" s="110" t="s">
@@ -4818,7 +4822,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I12" s="101"/>
       <c r="J12" s="89"/>
@@ -4829,13 +4833,13 @@
         <v>[User Module-3]</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="167" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="169" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="110" t="s">
@@ -4845,7 +4849,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I13" s="101"/>
       <c r="J13" s="89"/>
@@ -4853,7 +4857,7 @@
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="53"/>
       <c r="B14" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="168"/>
@@ -4870,17 +4874,17 @@
         <v>[User Module-5]</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D15" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="85" t="s">
-        <v>135</v>
-      </c>
       <c r="F15" s="110" t="s">
         <v>14</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I15" s="101"/>
       <c r="J15" s="89"/>
@@ -4899,13 +4903,13 @@
         <v>[User Module-6]</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="85" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="85" t="s">
         <v>344</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>345</v>
       </c>
       <c r="E16" s="85"/>
       <c r="F16" s="110" t="s">
@@ -4915,7 +4919,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I16" s="101"/>
       <c r="J16" s="89"/>
@@ -4923,7 +4927,7 @@
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53"/>
       <c r="B17" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
@@ -4940,13 +4944,13 @@
         <v>[User Module-8]</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="85" t="s">
         <v>139</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>140</v>
       </c>
       <c r="E18" s="98"/>
       <c r="F18" s="110" t="s">
@@ -4956,7 +4960,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I18" s="141"/>
       <c r="J18" s="89"/>
@@ -4967,17 +4971,17 @@
         <v>[User Module-9]</v>
       </c>
       <c r="B19" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="98" t="s">
+      <c r="E19" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="98" t="s">
-        <v>143</v>
-      </c>
       <c r="F19" s="110" t="s">
         <v>14</v>
       </c>
@@ -4985,7 +4989,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I19" s="138"/>
       <c r="J19" s="89"/>
@@ -4993,7 +4997,7 @@
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="53"/>
       <c r="B20" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
@@ -5010,16 +5014,16 @@
         <v>[User Module-11]</v>
       </c>
       <c r="B21" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="100" t="s">
-        <v>339</v>
-      </c>
-      <c r="D21" s="98" t="s">
-        <v>185</v>
-      </c>
       <c r="E21" s="98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F21" s="110" t="s">
         <v>14</v>
@@ -5028,7 +5032,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I21" s="141"/>
       <c r="J21" s="99"/>
@@ -5036,7 +5040,7 @@
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="53"/>
       <c r="B22" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -5053,16 +5057,16 @@
         <v>[User Module-13]</v>
       </c>
       <c r="B23" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="100" t="s">
-        <v>340</v>
-      </c>
-      <c r="D23" s="98" t="s">
-        <v>187</v>
-      </c>
       <c r="E23" s="98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" s="110" t="s">
         <v>14</v>
@@ -5071,7 +5075,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I23" s="138"/>
       <c r="J23" s="99"/>
@@ -5079,7 +5083,7 @@
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="53"/>
       <c r="B24" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -5096,17 +5100,17 @@
         <v>[User Module-15]</v>
       </c>
       <c r="B25" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="100" t="s">
+      <c r="D25" s="170" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="E25" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="172" t="s">
-        <v>195</v>
-      </c>
       <c r="F25" s="110" t="s">
         <v>14</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I25" s="174"/>
       <c r="J25" s="99"/>
@@ -5122,7 +5126,7 @@
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="53"/>
       <c r="B26" s="143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="140"/>
       <c r="D26" s="140"/>
@@ -5139,17 +5143,17 @@
         <v>[User Module-17]</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="111" t="s">
-        <v>149</v>
-      </c>
       <c r="F27" s="110" t="s">
         <v>14</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I27" s="112"/>
       <c r="J27" s="99"/>
@@ -5165,7 +5169,7 @@
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="53"/>
       <c r="B28" s="143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
@@ -5182,16 +5186,16 @@
         <v>[User Module-19]</v>
       </c>
       <c r="B29" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="110" t="s">
+      <c r="D29" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="110" t="s">
-        <v>153</v>
-      </c>
       <c r="E29" s="111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" s="110" t="s">
         <v>14</v>
@@ -5200,7 +5204,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I29" s="112"/>
       <c r="J29" s="99"/>
@@ -5208,7 +5212,7 @@
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="53"/>
       <c r="B30" s="143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="140"/>
       <c r="D30" s="140"/>
@@ -5225,17 +5229,17 @@
         <v>[User Module-21]</v>
       </c>
       <c r="B31" s="110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="110" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="111" t="s">
-        <v>158</v>
-      </c>
       <c r="F31" s="110" t="s">
         <v>14</v>
       </c>
@@ -5243,7 +5247,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I31" s="112"/>
       <c r="J31" s="99"/>
@@ -5251,7 +5255,7 @@
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="53"/>
       <c r="B32" s="143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="140"/>
       <c r="D32" s="140"/>
@@ -5268,17 +5272,17 @@
         <v>[User Module-23]</v>
       </c>
       <c r="B33" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="D33" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="E33" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="111" t="s">
-        <v>182</v>
-      </c>
       <c r="F33" s="110" t="s">
         <v>14</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I33" s="112"/>
       <c r="J33" s="99"/>
@@ -5294,7 +5298,7 @@
     <row r="34" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="53"/>
       <c r="B34" s="143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="140"/>
       <c r="D34" s="140"/>
@@ -5311,17 +5315,17 @@
         <v>[User Module-25]</v>
       </c>
       <c r="B35" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="110" t="s">
-        <v>174</v>
-      </c>
       <c r="D35" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="111" t="s">
-        <v>177</v>
-      </c>
       <c r="F35" s="110" t="s">
         <v>14</v>
       </c>
@@ -5329,7 +5333,7 @@
         <v>14</v>
       </c>
       <c r="H35" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I35" s="112"/>
       <c r="J35" s="99"/>
@@ -5337,7 +5341,7 @@
     <row r="36" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="53"/>
       <c r="B36" s="143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="140"/>
       <c r="D36" s="140"/>
@@ -5354,17 +5358,17 @@
         <v>[User Module-27]</v>
       </c>
       <c r="B37" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="110" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="110" t="s">
-        <v>341</v>
-      </c>
-      <c r="D37" s="110" t="s">
+      <c r="E37" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="111" t="s">
-        <v>163</v>
-      </c>
       <c r="F37" s="110" t="s">
         <v>14</v>
       </c>
@@ -5372,7 +5376,7 @@
         <v>14</v>
       </c>
       <c r="H37" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I37" s="112"/>
       <c r="J37" s="99"/>
@@ -5380,7 +5384,7 @@
     <row r="38" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="53"/>
       <c r="B38" s="143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="140"/>
       <c r="D38" s="140"/>
@@ -5397,13 +5401,13 @@
         <v>[User Module-29]</v>
       </c>
       <c r="B39" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="110" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" s="110" t="s">
         <v>165</v>
-      </c>
-      <c r="C39" s="110" t="s">
-        <v>342</v>
-      </c>
-      <c r="D39" s="110" t="s">
-        <v>166</v>
       </c>
       <c r="E39" s="111"/>
       <c r="F39" s="110" t="s">
@@ -5413,7 +5417,7 @@
         <v>14</v>
       </c>
       <c r="H39" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I39" s="112"/>
       <c r="K39" s="201"/>
@@ -5433,7 +5437,7 @@
     <row r="40" spans="1:23" s="154" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="53"/>
       <c r="B40" s="143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="140"/>
       <c r="D40" s="140"/>
@@ -5461,17 +5465,17 @@
         <v>[User Module-31]</v>
       </c>
       <c r="B41" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="D41" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="E41" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="E41" s="111" t="s">
-        <v>170</v>
-      </c>
       <c r="F41" s="110" t="s">
         <v>14</v>
       </c>
@@ -5479,7 +5483,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I41" s="112"/>
       <c r="K41" s="202"/>
@@ -5498,7 +5502,7 @@
     <row r="42" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="53"/>
       <c r="B42" s="143" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" s="140"/>
       <c r="D42" s="140"/>
@@ -5526,13 +5530,13 @@
         <v>[User Module-33]</v>
       </c>
       <c r="B43" s="110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" s="110" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D43" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E43" s="111"/>
       <c r="F43" s="110" t="s">
@@ -5542,7 +5546,7 @@
         <v>14</v>
       </c>
       <c r="H43" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I43" s="112"/>
       <c r="K43" s="202"/>
@@ -5561,7 +5565,7 @@
     <row r="44" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="53"/>
       <c r="B44" s="143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="140"/>
       <c r="D44" s="140"/>
@@ -5589,16 +5593,16 @@
         <v>[User Module-35]</v>
       </c>
       <c r="B45" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="169" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="169" t="s">
+      <c r="D45" s="169" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="169" t="s">
-        <v>213</v>
-      </c>
       <c r="E45" s="180" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F45" s="110" t="s">
         <v>14</v>
@@ -5607,7 +5611,7 @@
         <v>14</v>
       </c>
       <c r="H45" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I45" s="181"/>
       <c r="K45" s="202"/>
@@ -5626,7 +5630,7 @@
     <row r="46" spans="1:23" s="159" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="53"/>
       <c r="B46" s="143" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C46" s="140"/>
       <c r="D46" s="140"/>
@@ -5654,16 +5658,16 @@
         <v>[User Module-37]</v>
       </c>
       <c r="B47" s="169" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="169" t="s">
+      <c r="D47" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="169" t="s">
-        <v>216</v>
-      </c>
       <c r="E47" s="180" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F47" s="110" t="s">
         <v>14</v>
@@ -5672,7 +5676,7 @@
         <v>14</v>
       </c>
       <c r="H47" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I47" s="181"/>
       <c r="K47" s="202"/>
@@ -5807,7 +5811,7 @@
         <v>14</v>
       </c>
       <c r="H52" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I52" s="158"/>
       <c r="K52" s="203"/>
@@ -5829,10 +5833,10 @@
         <v>ID-23</v>
       </c>
       <c r="B53" s="110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" s="110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" s="110" t="s">
         <v>66</v>
@@ -5845,7 +5849,7 @@
         <v>14</v>
       </c>
       <c r="H53" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I53" s="158"/>
       <c r="K53" s="203"/>
@@ -5867,10 +5871,10 @@
         <v>ID-24</v>
       </c>
       <c r="B54" s="110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D54" s="110" t="s">
         <v>66</v>
@@ -5883,7 +5887,7 @@
         <v>14</v>
       </c>
       <c r="H54" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I54" s="158"/>
       <c r="K54" s="203"/>
@@ -5905,10 +5909,10 @@
         <v>ID-25</v>
       </c>
       <c r="B55" s="110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" s="110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="110" t="s">
         <v>66</v>
@@ -5921,7 +5925,7 @@
         <v>14</v>
       </c>
       <c r="H55" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I55" s="158"/>
       <c r="K55" s="202"/>
@@ -5943,10 +5947,10 @@
         <v>ID-26</v>
       </c>
       <c r="B56" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C56" s="110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="110" t="s">
         <v>66</v>
@@ -5959,7 +5963,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I56" s="158"/>
       <c r="K56" s="204"/>
@@ -6022,7 +6026,7 @@
         <v>14</v>
       </c>
       <c r="H58" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I58" s="110"/>
       <c r="K58" s="204"/>
@@ -6060,7 +6064,7 @@
         <v>14</v>
       </c>
       <c r="H59" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I59" s="110"/>
       <c r="K59" s="204"/>
@@ -6098,7 +6102,7 @@
         <v>14</v>
       </c>
       <c r="H60" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I60" s="110"/>
       <c r="K60" s="204"/>
@@ -6136,7 +6140,7 @@
         <v>14</v>
       </c>
       <c r="H61" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I61" s="110"/>
       <c r="K61" s="204"/>
@@ -6174,7 +6178,7 @@
         <v>14</v>
       </c>
       <c r="H62" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I62" s="110"/>
       <c r="K62" s="204"/>
@@ -6212,7 +6216,7 @@
         <v>14</v>
       </c>
       <c r="H63" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I63" s="110"/>
       <c r="K63" s="204"/>
@@ -6250,7 +6254,7 @@
         <v>14</v>
       </c>
       <c r="H64" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I64" s="110"/>
     </row>
@@ -6276,7 +6280,7 @@
         <v>14</v>
       </c>
       <c r="H65" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I65" s="110"/>
     </row>
@@ -6302,7 +6306,7 @@
         <v>14</v>
       </c>
       <c r="H66" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I66" s="110"/>
     </row>
@@ -6328,7 +6332,7 @@
         <v>14</v>
       </c>
       <c r="H67" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I67" s="110"/>
     </row>
@@ -6354,7 +6358,7 @@
         <v>14</v>
       </c>
       <c r="H68" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I68" s="110"/>
     </row>
@@ -6380,7 +6384,7 @@
         <v>14</v>
       </c>
       <c r="H69" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I69" s="110"/>
     </row>
@@ -6406,7 +6410,7 @@
         <v>14</v>
       </c>
       <c r="H70" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I70" s="110"/>
     </row>
@@ -6453,7 +6457,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6633,7 +6637,7 @@
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="53"/>
       <c r="B11" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="147"/>
       <c r="D11" s="147"/>
@@ -6650,16 +6654,16 @@
         <v>[Mod_login-2]</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" s="150" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>14</v>
@@ -6668,14 +6672,14 @@
         <v>14</v>
       </c>
       <c r="H12" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I12" s="146"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="53"/>
       <c r="B13" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="147"/>
       <c r="D13" s="147"/>
@@ -6691,16 +6695,16 @@
         <v>[Mod_login-4]</v>
       </c>
       <c r="B14" s="110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="110" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14" s="144" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>14</v>
@@ -6709,14 +6713,14 @@
         <v>14</v>
       </c>
       <c r="H14" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I14" s="146"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="53"/>
       <c r="B15" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="147"/>
       <c r="D15" s="147"/>
@@ -6732,16 +6736,16 @@
         <v>[Mod_login-6]</v>
       </c>
       <c r="B16" s="110" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="110" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="110" t="s">
-        <v>247</v>
-      </c>
       <c r="E16" s="144" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F16" s="110" t="s">
         <v>14</v>
@@ -6750,14 +6754,14 @@
         <v>14</v>
       </c>
       <c r="H16" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I16" s="146"/>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53"/>
       <c r="B17" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" s="147"/>
       <c r="D17" s="147"/>
@@ -6773,17 +6777,17 @@
         <v>[Mod_login-8]</v>
       </c>
       <c r="B18" s="110" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="D18" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="E18" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="E18" s="110" t="s">
-        <v>252</v>
-      </c>
       <c r="F18" s="110" t="s">
         <v>14</v>
       </c>
@@ -6791,14 +6795,14 @@
         <v>14</v>
       </c>
       <c r="H18" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I18" s="110"/>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="53"/>
       <c r="B19" s="147" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C19" s="147"/>
       <c r="D19" s="147"/>
@@ -6814,16 +6818,16 @@
         <v>[Mod_login-10]</v>
       </c>
       <c r="B20" s="110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C20" s="110" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E20" s="110" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F20" s="110" t="s">
         <v>14</v>
@@ -6832,7 +6836,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I20" s="110"/>
     </row>
@@ -6842,17 +6846,17 @@
         <v>[Mod_login-11]</v>
       </c>
       <c r="B21" s="110" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="110" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="110" t="s">
+      <c r="E21" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="110" t="s">
-        <v>257</v>
-      </c>
       <c r="F21" s="110" t="s">
         <v>14</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I21" s="110"/>
     </row>
@@ -6870,16 +6874,16 @@
         <v>[Mod_login-12]</v>
       </c>
       <c r="B22" s="110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="110" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D22" s="110" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E22" s="192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F22" s="110" t="s">
         <v>14</v>
@@ -6888,7 +6892,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I22" s="192"/>
     </row>
@@ -6898,16 +6902,16 @@
         <v>[Mod_login-13]</v>
       </c>
       <c r="B23" s="110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D23" s="110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="192" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F23" s="110" t="s">
         <v>14</v>
@@ -6916,7 +6920,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I23" s="110"/>
     </row>
@@ -6926,16 +6930,16 @@
         <v>[Mod_login-14]</v>
       </c>
       <c r="B24" s="110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="110" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="110" t="s">
-        <v>265</v>
-      </c>
       <c r="E24" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F24" s="110" t="s">
         <v>14</v>
@@ -6944,7 +6948,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I24" s="110"/>
     </row>
@@ -6954,16 +6958,16 @@
         <v>[Mod_login-15]</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E25" s="192" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F25" s="110" t="s">
         <v>14</v>
@@ -6972,7 +6976,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I25" s="192"/>
     </row>
@@ -6982,16 +6986,16 @@
         <v>[Mod_login-16]</v>
       </c>
       <c r="B26" s="110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D26" s="110" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E26" s="192" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F26" s="110" t="s">
         <v>14</v>
@@ -7000,7 +7004,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I26" s="110"/>
     </row>
@@ -7010,16 +7014,16 @@
         <v>[Mod_login-17]</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="110" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" s="192" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F27" s="110" t="s">
         <v>14</v>
@@ -7028,7 +7032,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I27" s="110"/>
     </row>
@@ -7038,16 +7042,16 @@
         <v>[Mod_login-18]</v>
       </c>
       <c r="B28" s="110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="110" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="D28" s="110" t="s">
-        <v>277</v>
-      </c>
       <c r="E28" s="192" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F28" s="110" t="s">
         <v>14</v>
@@ -7056,14 +7060,14 @@
         <v>14</v>
       </c>
       <c r="H28" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I28" s="110"/>
     </row>
     <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="53"/>
       <c r="B29" s="147" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" s="147"/>
       <c r="D29" s="147"/>
@@ -7079,16 +7083,16 @@
         <v>[Mod_login-20]</v>
       </c>
       <c r="B30" s="110" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" s="110" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="D30" s="110" t="s">
-        <v>289</v>
-      </c>
       <c r="E30" s="192" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F30" s="110" t="s">
         <v>14</v>
@@ -7097,7 +7101,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I30" s="192"/>
     </row>
@@ -7107,16 +7111,16 @@
         <v>[Mod_login-21]</v>
       </c>
       <c r="B31" s="110" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C31" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="D31" s="110" t="s">
-        <v>291</v>
-      </c>
       <c r="E31" s="192" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F31" s="110" t="s">
         <v>14</v>
@@ -7125,7 +7129,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I31" s="192"/>
     </row>
@@ -7135,16 +7139,16 @@
         <v>[Mod_login-22]</v>
       </c>
       <c r="B32" s="110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D32" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E32" s="192" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F32" s="110" t="s">
         <v>14</v>
@@ -7153,7 +7157,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I32" s="192"/>
     </row>
@@ -7163,16 +7167,16 @@
         <v>[Mod_login-23]</v>
       </c>
       <c r="B33" s="110" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C33" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="110" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="110" t="s">
-        <v>294</v>
-      </c>
       <c r="E33" s="192" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F33" s="110" t="s">
         <v>14</v>
@@ -7181,7 +7185,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I33" s="193"/>
     </row>
@@ -7191,16 +7195,16 @@
         <v>[Mod_login-24]</v>
       </c>
       <c r="B34" s="110" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C34" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" s="110" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="110" t="s">
-        <v>296</v>
-      </c>
       <c r="E34" s="192" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F34" s="110" t="s">
         <v>14</v>
@@ -7209,7 +7213,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I34" s="193"/>
     </row>
@@ -7219,16 +7223,16 @@
         <v>[Mod_login-25]</v>
       </c>
       <c r="B35" s="110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" s="110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E35" s="192" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F35" s="110" t="s">
         <v>14</v>
@@ -7237,7 +7241,7 @@
         <v>14</v>
       </c>
       <c r="H35" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I35" s="193"/>
     </row>
@@ -7247,16 +7251,16 @@
         <v>[Mod_login-26]</v>
       </c>
       <c r="B36" s="110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" s="110" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D36" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E36" s="192" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F36" s="110" t="s">
         <v>14</v>
@@ -7265,7 +7269,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I36" s="193"/>
     </row>
@@ -7275,16 +7279,16 @@
         <v>[Mod_login-27]</v>
       </c>
       <c r="B37" s="110" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C37" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="D37" s="110" t="s">
-        <v>300</v>
-      </c>
       <c r="E37" s="192" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F37" s="110" t="s">
         <v>14</v>
@@ -7293,7 +7297,7 @@
         <v>14</v>
       </c>
       <c r="H37" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I37" s="193"/>
     </row>
@@ -7303,16 +7307,16 @@
         <v>[Mod_login-28]</v>
       </c>
       <c r="B38" s="110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C38" s="110" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D38" s="110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E38" s="192" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F38" s="110" t="s">
         <v>14</v>
@@ -7321,7 +7325,7 @@
         <v>14</v>
       </c>
       <c r="H38" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I38" s="193"/>
     </row>
@@ -7535,7 +7539,7 @@
     <row r="11" spans="1:10" s="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="147"/>
       <c r="B11" s="148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="147"/>
       <c r="D11" s="147"/>
@@ -7551,16 +7555,16 @@
         <v>[Admin_login-2]</v>
       </c>
       <c r="B12" s="176" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="176" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="176" t="s">
-        <v>200</v>
-      </c>
       <c r="E12" s="150" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12" s="176" t="s">
         <v>14</v>
@@ -7576,7 +7580,7 @@
     <row r="13" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="53"/>
       <c r="B13" s="148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="147"/>
       <c r="D13" s="147"/>
@@ -7592,16 +7596,16 @@
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="110" t="s">
-        <v>205</v>
-      </c>
       <c r="E14" s="144" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="176" t="s">
         <v>14</v>
@@ -7617,7 +7621,7 @@
     <row r="15" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="53"/>
       <c r="B15" s="148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C15" s="147"/>
       <c r="D15" s="147"/>
@@ -7633,16 +7637,16 @@
         <v>[Admin_login-6]</v>
       </c>
       <c r="B16" s="110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="110" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="110" t="s">
-        <v>238</v>
-      </c>
       <c r="E16" s="144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F16" s="176" t="s">
         <v>14</v>
@@ -7658,7 +7662,7 @@
     <row r="17" spans="1:10" s="105" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53"/>
       <c r="B17" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
@@ -7674,13 +7678,13 @@
         <v>[Admin_login-8]</v>
       </c>
       <c r="B18" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="183" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="183" t="s">
-        <v>207</v>
-      </c>
       <c r="D18" s="184" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18" s="185"/>
       <c r="F18" s="176" t="s">
@@ -7697,7 +7701,7 @@
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="187"/>
       <c r="B19" s="188" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="188"/>
       <c r="D19" s="188"/>
@@ -7714,16 +7718,16 @@
         <v>[Admin_login-10]</v>
       </c>
       <c r="B20" s="110" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="192" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="192" t="s">
-        <v>220</v>
-      </c>
       <c r="D20" s="192" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="192" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F20" s="176" t="s">
         <v>14</v>
@@ -7743,16 +7747,16 @@
         <v>[Admin_login-11]</v>
       </c>
       <c r="B21" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="C21" s="192" t="s">
+      <c r="D21" s="192" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="192" t="s">
-        <v>230</v>
-      </c>
       <c r="E21" s="192" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F21" s="176" t="s">
         <v>14</v>
@@ -7772,16 +7776,16 @@
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="169" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="192" t="s">
         <v>314</v>
       </c>
-      <c r="C22" s="192" t="s">
-        <v>315</v>
-      </c>
       <c r="D22" s="192" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" s="192" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F22" s="176" t="s">
         <v>14</v>
@@ -7801,16 +7805,16 @@
         <v>[Admin_login-13]</v>
       </c>
       <c r="B23" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="192" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="192" t="s">
-        <v>317</v>
-      </c>
       <c r="D23" s="192" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="191" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F23" s="176" t="s">
         <v>14</v>
@@ -7827,7 +7831,7 @@
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="53"/>
       <c r="B24" s="225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="226"/>
       <c r="D24" s="226"/>
@@ -7844,16 +7848,16 @@
         <v>[Admin_login-15]</v>
       </c>
       <c r="B25" s="110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="110" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="D25" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="110" t="s">
-        <v>225</v>
-      </c>
       <c r="E25" s="110" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F25" s="176" t="s">
         <v>14</v>
@@ -7873,16 +7877,16 @@
         <v>[Admin_login-16]</v>
       </c>
       <c r="B26" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="110" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="D26" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="110" t="s">
-        <v>233</v>
-      </c>
       <c r="E26" s="110" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F26" s="176" t="s">
         <v>14</v>
@@ -7902,16 +7906,16 @@
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="110" t="s">
-        <v>235</v>
-      </c>
       <c r="D27" s="110" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" s="110" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F27" s="176" t="s">
         <v>14</v>
